--- a/words collection.xlsx
+++ b/words collection.xlsx
@@ -453,7 +453,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44520.86650461092</v>
+        <v>44520.9912241478</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -463,15 +463,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44520.86650586071</v>
+        <v>44520.99123594624</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>mother</t>
-        </is>
-      </c>
-    </row>
-    <row r="4"/>
+          <t>sister</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>44520.99124188198</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>brother</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -483,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,21 +514,31 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44520.86650983995</v>
+        <v>44520.99124783508</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sister</t>
+          <t>uncle</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44520.86650995174</v>
+        <v>44520.99125379849</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>brother</t>
+          <t>aunt</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>44520.99125972461</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>mother</t>
         </is>
       </c>
     </row>

--- a/words collection.xlsx
+++ b/words collection.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44520.9912241478</v>
+        <v>44542.57741841173</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -463,19 +463,29 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44520.99123594624</v>
+        <v>44542.57741849165</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sister</t>
+          <t>mother</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44520.99124188198</v>
+        <v>44542.57741855446</v>
       </c>
       <c r="B4" t="inlineStr">
+        <is>
+          <t>sister</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>44542.57741863377</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
@@ -492,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,7 +524,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44520.99124783508</v>
+        <v>44542.57741871198</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -524,21 +534,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44520.99125379849</v>
+        <v>44542.57741878553</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>aunt</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>44520.99125972461</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>mother</t>
         </is>
       </c>
     </row>

--- a/words collection.xlsx
+++ b/words collection.xlsx
@@ -453,7 +453,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44542.57741841173</v>
+        <v>44542.58256062926</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -463,7 +463,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44542.57741849165</v>
+        <v>44542.58256185101</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -473,7 +473,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44542.57741855446</v>
+        <v>44542.58256317599</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -483,7 +483,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44542.57741863377</v>
+        <v>44542.58256443439</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44542.57741871198</v>
+        <v>44542.58256572365</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44542.57741878553</v>
+        <v>44542.58256700875</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>

--- a/words collection.xlsx
+++ b/words collection.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,39 +453,29 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44542.58256062926</v>
+        <v>44574.89023439692</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>father</t>
+          <t>mother</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44542.58256185101</v>
+        <v>44574.89023567735</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>sister</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44542.58256317599</v>
+        <v>44574.89023704914</v>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>sister</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>44542.58256443439</v>
-      </c>
-      <c r="B5" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
@@ -502,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,7 +514,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44542.58256572365</v>
+        <v>44574.89023836639</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -534,11 +524,21 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44542.58256700875</v>
+        <v>44574.89023970655</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>aunt</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>44574.89150993348</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>father</t>
         </is>
       </c>
     </row>
